--- a/biology/Botanique/Kardinal/Kardinal.xlsx
+++ b/biology/Botanique/Kardinal/Kardinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Kardinal' est un cultivar de rosier obtenu en 1933 par le rosiériste allemand Max Krause (1880-1937)[1]. Son nom est choisi en référence à la couleur rouge de la soutane de cardinal. Il est issu d'un semis de 'Château de Clos-Vougeot' (Joseph Pernet-Ducher, 1908)[2].
+'Kardinal' est un cultivar de rosier obtenu en 1933 par le rosiériste allemand Max Krause (1880-1937). Son nom est choisi en référence à la couleur rouge de la soutane de cardinal. Il est issu d'un semis de 'Château de Clos-Vougeot' (Joseph Pernet-Ducher, 1908).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier hybride de thé présente un buisson érigé et touffu, très ramifié, au feuillage vert clair. Ses fleurs de dimension moyenne à grande sont doubles (17-25 pétales) en forme de coupe et de couleur rouge soutenu. Sa floraison est remontante.
-Ce rosier très florifère a connu un grand succès dans les années 1930-1960, pour sa couleur rouge éclatante et sa bonne remontée[2], ainsi que sa grande résistance aux maladies. Il a besoin d'une exposition ensoleillée. Il supporte le froid (-15°) si son pied est bien protégé en hiver (zone USDA 7b).
+Ce rosier très florifère a connu un grand succès dans les années 1930-1960, pour sa couleur rouge éclatante et sa bonne remontée, ainsi que sa grande résistance aux maladies. Il a besoin d'une exposition ensoleillée. Il supporte le froid (-15°) si son pied est bien protégé en hiver (zone USDA 7b).
 On peut l'admirer à la roseraie San Giovanni de Trieste.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par croisement avec 'Mevrouw Nathalie Nypels' (Leenders, 1919), il a donné naissance à 'Gotenhafen' (Tantau, 1940)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par croisement avec 'Mevrouw Nathalie Nypels' (Leenders, 1919), il a donné naissance à 'Gotenhafen' (Tantau, 1940).
 </t>
         </is>
       </c>
